--- a/biology/Botanique/Chambeyronia_macrocarpa/Chambeyronia_macrocarpa.xlsx
+++ b/biology/Botanique/Chambeyronia_macrocarpa/Chambeyronia_macrocarpa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chambeyronia macrocarpa est une espèce de palmiers, des plantes de la famille des Arecaceae, endémique de Nouvelle-Calédonie, où elle est l'un des symboles de la biodiversité de l'archipel.
 </t>
@@ -511,7 +523,9 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est présente sur l'ensemble de la Grande Terre, dans les forêts denses humides. C'est l'espèce de palmier endémique la plus répandue sur le territoire.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le palmier Chambeyronia macrocarpa a un aspect très singulier et facilement identifiable du fait de la couleur rouge vif de ses feuilles juvéniles. Son tronc de 15 à 25 cm de diamètre peut grandir jusqu'à 20 m et émerger de la canopée. Les fruits mesurent environ 4 cm et rougissent à maturité.
 </t>
@@ -573,7 +589,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Sous-famille des Arecoideae
 Tribu des Areceae
